--- a/Lawn Fertilizer Calc.xlsx
+++ b/Lawn Fertilizer Calc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\Documents\R Projects\ideal-fertilizer-proportions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54708F68-89B9-4D02-95E7-A3F00BBB28AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FF91D1-D469-4629-AC7D-AC14570DA5B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{99B924A8-B26C-43F3-A849-DBEA5E96AC58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{99B924A8-B26C-43F3-A849-DBEA5E96AC58}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>Element</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Blood Meal</t>
-  </si>
-  <si>
-    <t>Original NPK Matrix</t>
   </si>
   <si>
     <t>Inverse</t>
@@ -350,10 +347,10 @@
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.0E+00"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -493,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1093,6 +1090,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1111,7 +1145,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1119,52 +1153,34 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1179,10 +1195,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1194,10 +1210,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1227,39 +1243,21 @@
     <xf numFmtId="43" fontId="1" fillId="11" borderId="0" xfId="13" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="11" borderId="21" xfId="13" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="9" borderId="14" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="9" borderId="22" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="10" borderId="34" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="14" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="22" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="34" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="3" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="4" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="3" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="3" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="9" borderId="22" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="9" borderId="21" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="8" borderId="6" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="8" borderId="18" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="10" applyBorder="1"/>
@@ -1274,7 +1272,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="7" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="5" borderId="6" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="7" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="9" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="9" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="4" applyBorder="1"/>
@@ -1289,57 +1287,30 @@
     <xf numFmtId="44" fontId="6" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="9" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="8" borderId="47" xfId="10" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="47" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="47" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="10" borderId="47" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="47" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="9" borderId="14" xfId="11" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="9" borderId="28" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="9" borderId="23" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="25" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="26" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="27" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="11" borderId="14" xfId="13" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="11" borderId="22" xfId="13" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="9" borderId="14" xfId="11" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="11" borderId="14" xfId="13" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="11" borderId="22" xfId="13" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="12" borderId="19" xfId="14" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="12" borderId="18" xfId="14" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="12" borderId="18" xfId="14" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="35" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="11" borderId="8" xfId="13" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="11" borderId="35" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="11" borderId="8" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="12" borderId="49" xfId="14" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="11" borderId="8" xfId="13" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="12" borderId="49" xfId="14" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1367,15 +1338,9 @@
     <xf numFmtId="43" fontId="3" fillId="12" borderId="34" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="38" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="38" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -1384,12 +1349,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1398,12 +1357,6 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="38" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="38" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -1411,29 +1364,11 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="38" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="50" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1441,11 +1376,122 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="50" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="11" borderId="35" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="11" borderId="8" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="50" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="28" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="23" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="38" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="38" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="38" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="25" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="26" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="27" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="52" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="52" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="53" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1503,38 +1549,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1600,6 +1614,54 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1617,22 +1679,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1647,31 +1693,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AED02BA8-D852-4B24-AE32-7C4EC45BC99D}" name="fertilizers" displayName="fertilizers" ref="A1:Q29" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AED02BA8-D852-4B24-AE32-7C4EC45BC99D}" name="fertilizers" displayName="fertilizers" ref="A1:Q29" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A1:Q29" xr:uid="{C98C42E8-3ACE-491F-B61E-F40D66FB9EB5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q29">
     <sortCondition ref="A1:A29"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{1966C1C0-0D63-4BAF-9EA1-77906A6C86FF}" name="Fertilizer" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{50011B38-9FE3-4037-86B1-00205C337609}" name="Type" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{164AC636-EC59-4DCB-8518-41AF36B6D26A}" name="Package Cost" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="17" xr3:uid="{286A53B2-F75F-4FDB-8021-974DD78B4086}" name="Package Weight" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{A18E2E9D-C70C-4358-BFAC-93545AC790AD}" name="Cost Per Pound" dataDxfId="18" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{1966C1C0-0D63-4BAF-9EA1-77906A6C86FF}" name="Fertilizer" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{50011B38-9FE3-4037-86B1-00205C337609}" name="Type" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{164AC636-EC59-4DCB-8518-41AF36B6D26A}" name="Package Cost" dataDxfId="18" dataCellStyle="Currency"/>
+    <tableColumn id="17" xr3:uid="{286A53B2-F75F-4FDB-8021-974DD78B4086}" name="Package Weight" dataDxfId="17" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{A18E2E9D-C70C-4358-BFAC-93545AC790AD}" name="Cost Per Pound" dataDxfId="16" dataCellStyle="Currency">
       <calculatedColumnFormula>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A23EE555-3AE5-4BEC-83A3-53D36D7F8E72}" name="Nitrogen" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{28F2339A-7726-4829-BE15-8660871802A7}" name="Phosphorus" dataDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{BDB97B9F-15BB-4112-829B-100CB167B66E}" name="Potassium" dataDxfId="14" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D05706E7-CF56-4953-A7F3-D22F65C0F6A8}" name="Sulfur" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{34D34079-DA64-405E-A80F-28B272D29E24}" name="Calcium" dataDxfId="12" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{27E18F6C-ED4E-4881-9170-6B6E038B2C82}" name="Magnesium" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{D3F169BB-B4A0-4596-ACBF-233B070396CF}" name="Sodium" dataDxfId="16" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{61C0BA84-F4D1-497B-95E7-F40518342760}" name="Iron" dataDxfId="10" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{E366E64F-93E3-47CE-AFA3-E6881AECFAE9}" name="Manganese" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{9EFB8C8A-806B-41B9-9238-B8B955072738}" name="Zinc" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="14" xr3:uid="{11C02D2D-5E05-4D7E-94B5-B8586194551F}" name="Copper" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="15" xr3:uid="{D93AAF6C-0B39-4AA1-B78F-FB44611F034B}" name="Boron" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{A23EE555-3AE5-4BEC-83A3-53D36D7F8E72}" name="Nitrogen" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{28F2339A-7726-4829-BE15-8660871802A7}" name="Phosphorus" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{BDB97B9F-15BB-4112-829B-100CB167B66E}" name="Potassium" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D05706E7-CF56-4953-A7F3-D22F65C0F6A8}" name="Sulfur" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{34D34079-DA64-405E-A80F-28B272D29E24}" name="Calcium" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{27E18F6C-ED4E-4881-9170-6B6E038B2C82}" name="Magnesium" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{D3F169BB-B4A0-4596-ACBF-233B070396CF}" name="Sodium" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{61C0BA84-F4D1-497B-95E7-F40518342760}" name="Iron" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{E366E64F-93E3-47CE-AFA3-E6881AECFAE9}" name="Manganese" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{9EFB8C8A-806B-41B9-9238-B8B955072738}" name="Zinc" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{11C02D2D-5E05-4D7E-94B5-B8586194551F}" name="Copper" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="15" xr3:uid="{D93AAF6C-0B39-4AA1-B78F-FB44611F034B}" name="Boron" dataDxfId="4" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1976,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B71F1-BDB6-4ED8-B528-76C6AE5BB703}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1987,870 +2033,875 @@
     <col min="3" max="6" width="12.7265625" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" style="6" customWidth="1"/>
     <col min="8" max="8" width="3.08984375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="57.6328125" style="172" customWidth="1"/>
+    <col min="9" max="9" width="57.6328125" style="143" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="37" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="147" t="s">
+    <row r="1" spans="1:9" s="31" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="147" t="s">
+      <c r="E1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="147" t="s">
+      <c r="F1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="148" t="s">
+      <c r="G1" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="182" t="s">
-        <v>75</v>
+      <c r="I1" s="148" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="110">
+      <c r="B2" s="98">
         <v>1.7</v>
       </c>
-      <c r="C2" s="110">
+      <c r="C2" s="98">
         <v>7</v>
       </c>
-      <c r="D2" s="110">
+      <c r="D2" s="98">
         <v>18</v>
       </c>
-      <c r="E2" s="110">
+      <c r="E2" s="98">
         <v>25</v>
       </c>
-      <c r="F2" s="105">
+      <c r="F2" s="93">
         <f>E2-B2</f>
         <v>23.3</v>
       </c>
-      <c r="G2" s="106">
+      <c r="G2" s="94">
         <f>F2*'PPM Conversion'!$B$4</f>
         <v>1.0697887970615243</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="178" t="s">
-        <v>72</v>
+      <c r="I2" s="145" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="110">
+      <c r="B3" s="98">
         <v>3.84</v>
       </c>
-      <c r="C3" s="110">
+      <c r="C3" s="98">
         <v>7</v>
       </c>
-      <c r="D3" s="110">
+      <c r="D3" s="98">
         <v>16</v>
       </c>
-      <c r="E3" s="110">
+      <c r="E3" s="98">
         <f>D3</f>
         <v>16</v>
       </c>
-      <c r="F3" s="105">
+      <c r="F3" s="93">
         <f>E3-B3</f>
         <v>12.16</v>
       </c>
-      <c r="G3" s="106">
+      <c r="G3" s="94">
         <f>F3*'PPM Conversion'!$B$4</f>
         <v>0.55831037649219462</v>
       </c>
-      <c r="I3" s="178" t="s">
-        <v>73</v>
+      <c r="I3" s="145" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="98">
         <v>4.05</v>
       </c>
-      <c r="C4" s="110">
+      <c r="C4" s="98">
         <v>4</v>
       </c>
-      <c r="D4" s="110">
+      <c r="D4" s="98">
         <v>11</v>
       </c>
-      <c r="E4" s="110">
+      <c r="E4" s="98">
         <f>D4</f>
         <v>11</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="93">
         <f>E4-B4</f>
         <v>6.95</v>
       </c>
-      <c r="G4" s="106">
+      <c r="G4" s="94">
         <f>F4*'PPM Conversion'!$B$4</f>
         <v>0.31910009182736454</v>
       </c>
-      <c r="I4" s="178" t="s">
-        <v>74</v>
+      <c r="I4" s="145" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="112">
+      <c r="B5" s="100">
         <v>0.17</v>
       </c>
-      <c r="C5" s="112">
+      <c r="C5" s="100">
         <v>0.22</v>
       </c>
-      <c r="D5" s="112">
+      <c r="D5" s="100">
         <v>0.66</v>
       </c>
-      <c r="E5" s="112">
+      <c r="E5" s="100">
         <f>AVERAGE(C5:D5)</f>
         <v>0.44</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="95">
         <f>E5-B5</f>
         <v>0.27</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="96">
         <f>F5*'PPM Conversion'!$B$4</f>
         <v>1.2396694214876033E-2</v>
       </c>
-      <c r="I5" s="179" t="s">
+      <c r="I5" s="146" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6" s="147" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="142" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="142" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="142" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="153" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I6" s="180" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="171" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="171" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="171" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="171" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="174" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="97"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="144" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="144" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="123" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="145" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="149" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="174"/>
+      <c r="G8" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="153"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="153" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="98" t="str" cm="1">
+      <c r="A9" s="159" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="86" t="str" cm="1">
         <f t="array" ref="B9:B12">A2:A5</f>
         <v>Nitrogen</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="87">
         <f>INDEX(fertilizers[],MATCH(C$8,fertilizers[Fertilizer],0),MATCH($B9,fertilizers[#Headers],0))</f>
         <v>0.16</v>
       </c>
-      <c r="D9" s="102">
+      <c r="D9" s="90">
         <f>INDEX(fertilizers[],MATCH(D$8,fertilizers[Fertilizer],0),MATCH($B9,fertilizers[#Headers],0))</f>
         <v>0.17</v>
       </c>
-      <c r="E9" s="102">
+      <c r="E9" s="90">
         <f>INDEX(fertilizers[],MATCH(E$8,fertilizers[Fertilizer],0),MATCH($B9,fertilizers[#Headers],0))</f>
         <v>0.01</v>
       </c>
-      <c r="F9" s="104">
+      <c r="F9" s="92">
         <f>INDEX(fertilizers[],MATCH(F$8,fertilizers[Fertilizer],0),MATCH($B9,fertilizers[#Headers],0))</f>
         <v>0</v>
       </c>
-      <c r="G9" s="94"/>
+      <c r="G9" s="82"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="174" t="s">
-        <v>81</v>
+      <c r="I9" s="153" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="153"/>
-      <c r="B10" s="98" t="str">
+      <c r="A10" s="159"/>
+      <c r="B10" s="86" t="str">
         <v>Sulfur</v>
       </c>
-      <c r="C10" s="102">
+      <c r="C10" s="90">
         <f>INDEX(fertilizers[],MATCH(C$8,fertilizers[Fertilizer],0),MATCH($B10,fertilizers[#Headers],0))</f>
         <v>0</v>
       </c>
-      <c r="D10" s="99">
+      <c r="D10" s="87">
         <f>INDEX(fertilizers[],MATCH(D$8,fertilizers[Fertilizer],0),MATCH($B10,fertilizers[#Headers],0))</f>
         <v>0.17</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="90">
         <f>INDEX(fertilizers[],MATCH(E$8,fertilizers[Fertilizer],0),MATCH($B10,fertilizers[#Headers],0))</f>
         <v>0.05</v>
       </c>
-      <c r="F10" s="104">
+      <c r="F10" s="92">
         <f>INDEX(fertilizers[],MATCH(F$8,fertilizers[Fertilizer],0),MATCH($B10,fertilizers[#Headers],0))</f>
         <v>0</v>
       </c>
-      <c r="G10" s="94"/>
+      <c r="G10" s="82"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="174"/>
+      <c r="I10" s="153"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="153"/>
-      <c r="B11" s="98" t="str">
+      <c r="A11" s="159"/>
+      <c r="B11" s="86" t="str">
         <v>Iron</v>
       </c>
-      <c r="C11" s="102">
+      <c r="C11" s="90">
         <f>INDEX(fertilizers[],MATCH(C$8,fertilizers[Fertilizer],0),MATCH($B11,fertilizers[#Headers],0))</f>
         <v>0.06</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="90">
         <f>INDEX(fertilizers[],MATCH(D$8,fertilizers[Fertilizer],0),MATCH($B11,fertilizers[#Headers],0))</f>
         <v>0</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="87">
         <f>INDEX(fertilizers[],MATCH(E$8,fertilizers[Fertilizer],0),MATCH($B11,fertilizers[#Headers],0))</f>
         <v>0.2</v>
       </c>
-      <c r="F11" s="104">
+      <c r="F11" s="92">
         <f>INDEX(fertilizers[],MATCH(F$8,fertilizers[Fertilizer],0),MATCH($B11,fertilizers[#Headers],0))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="94"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="174"/>
+      <c r="I11" s="153"/>
     </row>
     <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="154"/>
-      <c r="B12" s="100" t="str">
+      <c r="A12" s="160"/>
+      <c r="B12" s="88" t="str">
         <v>Boron</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="91">
         <f>INDEX(fertilizers[],MATCH(C$8,fertilizers[Fertilizer],0),MATCH($B12,fertilizers[#Headers],0))</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="91">
         <f>INDEX(fertilizers[],MATCH(D$8,fertilizers[Fertilizer],0),MATCH($B12,fertilizers[#Headers],0))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="103">
+      <c r="E12" s="91">
         <f>INDEX(fertilizers[],MATCH(E$8,fertilizers[Fertilizer],0),MATCH($B12,fertilizers[#Headers],0))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="101">
+      <c r="F12" s="89">
         <f>INDEX(fertilizers[],MATCH(F$8,fertilizers[Fertilizer],0),MATCH($B12,fertilizers[#Headers],0))</f>
         <v>0.99</v>
       </c>
-      <c r="G12" s="95"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="175" t="s">
-        <v>83</v>
+      <c r="I12" s="149" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="155"/>
-      <c r="B13" s="119" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="118">
+      <c r="A13" s="132"/>
+      <c r="B13" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="106">
         <f>VLOOKUP(C$8,fertilizers[],3,FALSE)</f>
         <v>58</v>
       </c>
-      <c r="D13" s="118">
+      <c r="D13" s="106">
         <f>VLOOKUP(D$8,fertilizers[],3,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="E13" s="118">
+      <c r="E13" s="106">
         <f>VLOOKUP(E$8,fertilizers[],3,FALSE)</f>
         <v>19</v>
       </c>
-      <c r="F13" s="118">
+      <c r="F13" s="106">
         <f>VLOOKUP(F$8,fertilizers[],3,FALSE)</f>
         <v>4.47</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="108">
         <f>SUM(C13:F13)</f>
         <v>114.47</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="175"/>
+      <c r="I13" s="149"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="156"/>
+      <c r="A14" s="133"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="I14" s="174" t="s">
-        <v>82</v>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="I14" s="153" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="157"/>
-      <c r="B15" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="53"/>
-      <c r="I15" s="174"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="167" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="47"/>
+      <c r="I15" s="153"/>
     </row>
     <row r="16" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="158"/>
-      <c r="B16" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="56" cm="1">
+      <c r="A16" s="135"/>
+      <c r="B16" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="50" cm="1">
         <f t="array" ref="C16:D16">TRANSPOSE(_xlfn.ANCHORARRAY('Matrix Calculations'!C15))</f>
         <v>3.1967401285583104</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="50">
         <v>3.2841786852482033</v>
       </c>
-      <c r="E16" s="84">
-        <v>0</v>
-      </c>
-      <c r="F16" s="85">
-        <v>0</v>
-      </c>
-      <c r="G16" s="150" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="174"/>
+      <c r="E16" s="78">
+        <v>0</v>
+      </c>
+      <c r="F16" s="79">
+        <v>0</v>
+      </c>
+      <c r="G16" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="153"/>
     </row>
     <row r="17" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="57" t="str" cm="1">
+      <c r="A17" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="51" t="str" cm="1">
         <f t="array" ref="B17:B20">$A$2:$A$5</f>
         <v>Nitrogen</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="52">
         <f>C9*C$16</f>
         <v>0.51147842056932968</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="52">
         <f>D9*D$16</f>
         <v>0.55831037649219462</v>
       </c>
-      <c r="E17" s="77">
-        <v>0</v>
-      </c>
-      <c r="F17" s="78">
-        <v>0</v>
-      </c>
-      <c r="G17" s="54">
+      <c r="E17" s="71">
+        <v>0</v>
+      </c>
+      <c r="F17" s="72">
+        <v>0</v>
+      </c>
+      <c r="G17" s="48">
         <f>SUM(C17:F17)</f>
         <v>1.0697887970615243</v>
       </c>
-      <c r="I17" s="175" t="s">
-        <v>84</v>
+      <c r="I17" s="149" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="159"/>
-      <c r="B18" s="57" t="str">
+      <c r="A18" s="161"/>
+      <c r="B18" s="51" t="str">
         <v>Sulfur</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="52">
         <f t="shared" ref="C18" si="0">C10*C$16</f>
         <v>0</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="52">
         <f>D10*D$16</f>
         <v>0.55831037649219462</v>
       </c>
-      <c r="E18" s="77">
-        <v>0</v>
-      </c>
-      <c r="F18" s="78">
-        <v>0</v>
-      </c>
-      <c r="G18" s="54">
+      <c r="E18" s="71">
+        <v>0</v>
+      </c>
+      <c r="F18" s="72">
+        <v>0</v>
+      </c>
+      <c r="G18" s="48">
         <f>SUM(C18:F18)</f>
         <v>0.55831037649219462</v>
       </c>
-      <c r="I18" s="175"/>
+      <c r="I18" s="149"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="159"/>
-      <c r="B19" s="76" t="str">
+      <c r="A19" s="161"/>
+      <c r="B19" s="70" t="str">
         <v>Iron</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="71">
         <f t="shared" ref="C19" si="1">C11*C$16</f>
         <v>0.1918044077134986</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D19" s="71">
         <f>D11*D$16</f>
         <v>0</v>
       </c>
-      <c r="E19" s="77">
-        <v>0</v>
-      </c>
-      <c r="F19" s="78">
-        <v>0</v>
-      </c>
-      <c r="G19" s="79">
+      <c r="E19" s="71">
+        <v>0</v>
+      </c>
+      <c r="F19" s="72">
+        <v>0</v>
+      </c>
+      <c r="G19" s="73">
         <f>SUM(C19:F19)</f>
         <v>0.1918044077134986</v>
       </c>
-      <c r="I19" s="175"/>
+      <c r="I19" s="149"/>
     </row>
     <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="160"/>
-      <c r="B20" s="80" t="str">
+      <c r="A20" s="162"/>
+      <c r="B20" s="74" t="str">
         <v>Boron</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="75">
         <f t="shared" ref="C20" si="2">C12*C$16</f>
         <v>6.3934802571166205E-4</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="75">
         <f>D12*D$16</f>
         <v>0</v>
       </c>
-      <c r="E20" s="81">
-        <v>0</v>
-      </c>
-      <c r="F20" s="82">
-        <v>0</v>
-      </c>
-      <c r="G20" s="83">
+      <c r="E20" s="75">
+        <v>0</v>
+      </c>
+      <c r="F20" s="76">
+        <v>0</v>
+      </c>
+      <c r="G20" s="77">
         <f>SUM(C20:F20)</f>
         <v>6.3934802571166205E-4</v>
       </c>
-      <c r="I20" s="174" t="s">
-        <v>85</v>
+      <c r="I20" s="153" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="161"/>
-      <c r="B21" s="124" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="125" cm="1">
+      <c r="A21" s="136"/>
+      <c r="B21" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="111" cm="1">
         <f t="array" ref="C21">SUM(VLOOKUP($C$8:$D$8,Fertilizers!$A$1:$E$29,5,FALSE)*_xlfn.ANCHORARRAY(C16))</f>
         <v>8.4553586968916719</v>
       </c>
-      <c r="D21" s="122" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="123"/>
-      <c r="F21" s="125">
+      <c r="D21" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="156"/>
+      <c r="F21" s="111">
         <f>SUM($C$13:$D$13)</f>
         <v>91</v>
       </c>
-      <c r="G21" s="121"/>
-      <c r="I21" s="181"/>
+      <c r="G21" s="109"/>
+      <c r="I21" s="154"/>
     </row>
     <row r="22" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="156"/>
+      <c r="A22" s="133"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="52"/>
-      <c r="I22" s="173" t="s">
-        <v>86</v>
+      <c r="G22" s="46"/>
+      <c r="I22" s="144" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="162"/>
-      <c r="B23" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="59"/>
-      <c r="I23" s="174" t="s">
-        <v>89</v>
+      <c r="A23" s="137"/>
+      <c r="B23" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="53"/>
+      <c r="I23" s="153" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="163"/>
-      <c r="B24" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="62" cm="1">
+      <c r="A24" s="138"/>
+      <c r="B24" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="56" cm="1">
         <f t="array" ref="C24:E24">TRANSPOSE(_xlfn.ANCHORARRAY('Matrix Calculations'!H17))</f>
         <v>3.3447583659000153</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D24" s="56">
         <v>3.1100395824932572</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="56">
         <v>0.59207294936681831</v>
       </c>
-      <c r="F24" s="86">
-        <v>0</v>
-      </c>
-      <c r="G24" s="151" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="174"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="164" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="63" t="str" cm="1">
+      <c r="F24" s="80">
+        <v>0</v>
+      </c>
+      <c r="G24" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="153"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="57" t="str" cm="1">
         <f t="array" ref="B25:B28">$A$2:$A$5</f>
         <v>Nitrogen</v>
       </c>
-      <c r="C25" s="64">
-        <f>C9*C$24</f>
+      <c r="C25" s="58">
+        <f t="shared" ref="C25:E28" si="3">C9*C$24</f>
         <v>0.5351613385440025</v>
       </c>
-      <c r="D25" s="64">
-        <f>D9*D$24</f>
+      <c r="D25" s="58">
+        <f t="shared" si="3"/>
         <v>0.52870672902385374</v>
       </c>
-      <c r="E25" s="64">
-        <f>E9*E$24</f>
+      <c r="E25" s="58">
+        <f t="shared" si="3"/>
         <v>5.9207294936681832E-3</v>
       </c>
-      <c r="F25" s="87">
-        <v>0</v>
-      </c>
-      <c r="G25" s="60">
+      <c r="F25" s="81">
+        <v>0</v>
+      </c>
+      <c r="G25" s="54">
         <f>SUM(C25:F25)</f>
         <v>1.0697887970615245</v>
       </c>
-      <c r="I25" s="175" t="s">
-        <v>87</v>
+      <c r="I25" s="184" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="164"/>
-      <c r="B26" s="63" t="str">
+      <c r="A26" s="163"/>
+      <c r="B26" s="57" t="str">
         <v>Sulfur</v>
       </c>
-      <c r="C26" s="64">
-        <f>C10*C$24</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="64">
-        <f>D10*D$24</f>
+      <c r="C26" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="58">
+        <f t="shared" si="3"/>
         <v>0.52870672902385374</v>
       </c>
-      <c r="E26" s="64">
-        <f>E10*E$24</f>
+      <c r="E26" s="58">
+        <f t="shared" si="3"/>
         <v>2.9603647468340918E-2</v>
       </c>
-      <c r="F26" s="87">
-        <v>0</v>
-      </c>
-      <c r="G26" s="60">
+      <c r="F26" s="81">
+        <v>0</v>
+      </c>
+      <c r="G26" s="54">
         <f>SUM(C26:F26)</f>
         <v>0.55831037649219462</v>
       </c>
-      <c r="I26" s="175"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="164"/>
-      <c r="B27" s="63" t="str">
+      <c r="I26" s="185"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="163"/>
+      <c r="B27" s="57" t="str">
         <v>Iron</v>
       </c>
-      <c r="C27" s="64">
-        <f>C11*C$24</f>
+      <c r="C27" s="58">
+        <f t="shared" si="3"/>
         <v>0.20068550195400092</v>
       </c>
-      <c r="D27" s="64">
-        <f>D11*D$24</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="64">
-        <f>E11*E$24</f>
+      <c r="D27" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="58">
+        <f t="shared" si="3"/>
         <v>0.11841458987336367</v>
       </c>
-      <c r="F27" s="87">
-        <v>0</v>
-      </c>
-      <c r="G27" s="60">
+      <c r="F27" s="81">
+        <v>0</v>
+      </c>
+      <c r="G27" s="54">
         <f>SUM(C27:F27)</f>
         <v>0.3191000918273646</v>
       </c>
-      <c r="I27" s="175" t="s">
-        <v>90</v>
+      <c r="I27" s="184" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="165"/>
-      <c r="B28" s="72" t="str">
+      <c r="A28" s="164"/>
+      <c r="B28" s="66" t="str">
         <v>Boron</v>
       </c>
-      <c r="C28" s="73">
-        <f>C12*C$24</f>
+      <c r="C28" s="67">
+        <f t="shared" si="3"/>
         <v>6.6895167318000305E-4</v>
       </c>
-      <c r="D28" s="73">
-        <f>D12*D$24</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="73">
-        <f>E12*E$24</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="74">
-        <v>0</v>
-      </c>
-      <c r="G28" s="75">
+      <c r="D28" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="68">
+        <v>0</v>
+      </c>
+      <c r="G28" s="69">
         <f>SUM(C28:F28)</f>
         <v>6.6895167318000305E-4</v>
       </c>
-      <c r="I28" s="175"/>
+      <c r="I28" s="186"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="166"/>
-      <c r="B29" s="127" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="128" cm="1">
+      <c r="A29" s="139"/>
+      <c r="B29" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="114" cm="1">
         <f t="array" ref="C29">SUM(VLOOKUP($C$8:$E$8,Fertilizers!$A$1:$E$29,5,FALSE)*_xlfn.ANCHORARRAY(C24))</f>
         <v>9.1662332119157561</v>
       </c>
-      <c r="D29" s="129" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="130"/>
-      <c r="F29" s="128">
+      <c r="D29" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="158"/>
+      <c r="F29" s="114">
         <f>SUM($C$13:$E$13)</f>
         <v>110</v>
       </c>
-      <c r="G29" s="126"/>
-      <c r="I29" s="175"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="156"/>
+      <c r="G29" s="112"/>
+      <c r="I29" s="186"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="133"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="52"/>
-      <c r="I30" s="176" t="s">
-        <v>91</v>
-      </c>
+      <c r="G30" s="46"/>
+      <c r="I30" s="185"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="167"/>
-      <c r="B31" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="136"/>
-      <c r="I31" s="176"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="117"/>
+      <c r="I31" s="182" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="168"/>
-      <c r="B32" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="67" cm="1">
+      <c r="A32" s="141"/>
+      <c r="B32" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="61" cm="1">
         <f t="array" ref="C32:F32">TRANSPOSE(_xlfn.ANCHORARRAY('Matrix Calculations'!N18))</f>
         <v>3.3447583659000153</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="61">
         <v>3.1100395824932572</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E32" s="61">
         <v>0.59207294936681831</v>
       </c>
-      <c r="F32" s="68">
+      <c r="F32" s="62">
         <v>1.1846204587571749E-2</v>
       </c>
-      <c r="G32" s="152" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="176"/>
+      <c r="G32" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="183"/>
     </row>
     <row r="33" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="169" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="69" t="str" cm="1">
+      <c r="A33" s="165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="63" t="str" cm="1">
         <f t="array" ref="B33:B36">$A$2:$A$5</f>
         <v>Nitrogen</v>
       </c>
-      <c r="C33" s="70">
-        <f>C9*C$32</f>
+      <c r="C33" s="64">
+        <f t="shared" ref="C33:F36" si="4">C9*C$32</f>
         <v>0.5351613385440025</v>
       </c>
-      <c r="D33" s="70">
-        <f>D9*D$32</f>
+      <c r="D33" s="64">
+        <f t="shared" si="4"/>
         <v>0.52870672902385374</v>
       </c>
-      <c r="E33" s="70">
-        <f>E9*E$32</f>
+      <c r="E33" s="64">
+        <f t="shared" si="4"/>
         <v>5.9207294936681832E-3</v>
       </c>
-      <c r="F33" s="71">
-        <f>F9*F$32</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="65">
+      <c r="F33" s="65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="59">
         <f>SUM(C33:F33)</f>
         <v>1.0697887970615245</v>
       </c>
-      <c r="I33" s="175" t="s">
-        <v>88</v>
+      <c r="I33" s="149" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="169"/>
-      <c r="B34" s="69" t="str">
+      <c r="A34" s="165"/>
+      <c r="B34" s="63" t="str">
         <v>Sulfur</v>
       </c>
-      <c r="C34" s="70">
-        <f>C10*C$32</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="70">
-        <f>D10*D$32</f>
+      <c r="C34" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="64">
+        <f t="shared" si="4"/>
         <v>0.52870672902385374</v>
       </c>
-      <c r="E34" s="70">
-        <f>E10*E$32</f>
+      <c r="E34" s="64">
+        <f t="shared" si="4"/>
         <v>2.9603647468340918E-2</v>
       </c>
-      <c r="F34" s="71">
-        <f>F10*F$32</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="65">
+      <c r="F34" s="65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="59">
         <f>SUM(C34:F34)</f>
         <v>0.55831037649219462</v>
       </c>
-      <c r="I34" s="175"/>
+      <c r="I34" s="149"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="169"/>
-      <c r="B35" s="69" t="str">
+      <c r="A35" s="165"/>
+      <c r="B35" s="63" t="str">
         <v>Iron</v>
       </c>
-      <c r="C35" s="70">
-        <f>C11*C$32</f>
+      <c r="C35" s="64">
+        <f t="shared" si="4"/>
         <v>0.20068550195400092</v>
       </c>
-      <c r="D35" s="70">
-        <f>D11*D$32</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="70">
-        <f>E11*E$32</f>
+      <c r="D35" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="64">
+        <f t="shared" si="4"/>
         <v>0.11841458987336367</v>
       </c>
-      <c r="F35" s="71">
-        <f>F11*F$32</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="65">
+      <c r="F35" s="65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="59">
         <f>SUM(C35:F35)</f>
         <v>0.3191000918273646</v>
       </c>
-      <c r="I35" s="175"/>
+      <c r="I35" s="149"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="170"/>
-      <c r="B36" s="66" t="str">
+      <c r="A36" s="166"/>
+      <c r="B36" s="60" t="str">
         <v>Boron</v>
       </c>
-      <c r="C36" s="134">
-        <f>C12*C$32</f>
+      <c r="C36" s="115">
+        <f t="shared" si="4"/>
         <v>6.6895167318000305E-4</v>
       </c>
-      <c r="D36" s="134">
-        <f>D12*D$32</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="134">
-        <f>E12*E$32</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="135">
-        <f>F12*F$32</f>
+      <c r="D36" s="115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="116">
+        <f t="shared" si="4"/>
         <v>1.1727742541696031E-2</v>
       </c>
-      <c r="G36" s="137">
+      <c r="G36" s="118">
         <f>SUM(C36:F36)</f>
         <v>1.2396694214876033E-2</v>
       </c>
-      <c r="I36" s="175"/>
+      <c r="I36" s="149"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="138"/>
-      <c r="B37" s="139" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="140" cm="1">
+      <c r="A37" s="119"/>
+      <c r="B37" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="121" cm="1">
         <f t="array" ref="C37">SUM(VLOOKUP($C$8:$F$8,Fertilizers!$A$1:$E$29,5,FALSE)*_xlfn.ANCHORARRAY(C32))</f>
         <v>9.1794713455423675</v>
       </c>
-      <c r="D37" s="141" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="142"/>
-      <c r="F37" s="140">
+      <c r="D37" s="151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="152"/>
+      <c r="F37" s="121">
         <f>SUM($C$13:$F$13)</f>
         <v>114.47</v>
       </c>
-      <c r="G37" s="143"/>
-      <c r="I37" s="177"/>
+      <c r="G37" s="122"/>
+      <c r="I37" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B31:F31"/>
     <mergeCell ref="I33:I37"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I30:I32"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="I9:I11"/>
@@ -2862,13 +2913,8 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I27:I30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C16:F16 C24:F24 C32:F32">
@@ -2932,72 +2978,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="117" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="113" t="s">
+      <c r="A1" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="114" t="s">
+      <c r="H1" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="I1" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="114" t="s">
+      <c r="K1" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="L1" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="M1" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="114" t="s">
+      <c r="O1" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="114" t="s">
+      <c r="P1" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="114" t="s">
+      <c r="Q1" s="102" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="39">
+      <c r="A2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="33">
         <v>20</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="33">
         <v>40</v>
       </c>
-      <c r="E2" s="116">
+      <c r="E2" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>0.5</v>
       </c>
@@ -3043,15 +3089,15 @@
         <v>11</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="38">
+        <v>41</v>
+      </c>
+      <c r="C3" s="32">
         <v>15</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="32">
         <v>40</v>
       </c>
-      <c r="E3" s="116">
+      <c r="E3" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>0.375</v>
       </c>
@@ -3093,19 +3139,19 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="39">
+      <c r="B4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="33">
         <v>7.48</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="33">
         <v>3</v>
       </c>
-      <c r="E4" s="116">
+      <c r="E4" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>2.4933333333333336</v>
       </c>
@@ -3147,19 +3193,19 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="39">
+      <c r="A5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="33">
         <v>4.47</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="33">
         <v>4</v>
       </c>
-      <c r="E5" s="116">
+      <c r="E5" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1.1174999999999999</v>
       </c>
@@ -3201,19 +3247,19 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="39">
+      <c r="A6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="33">
         <v>60</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="33">
         <v>45</v>
       </c>
-      <c r="E6" s="116">
+      <c r="E6" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1.3333333333333333</v>
       </c>
@@ -3253,19 +3299,19 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="39">
+      <c r="A7" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="33">
         <v>80</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="33">
         <v>13.6</v>
       </c>
-      <c r="E7" s="116">
+      <c r="E7" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>5.882352941176471</v>
       </c>
@@ -3305,19 +3351,19 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="115" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="116">
+      <c r="A8" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="104">
         <v>20</v>
       </c>
-      <c r="D8" s="116">
+      <c r="D8" s="104">
         <v>7</v>
       </c>
-      <c r="E8" s="116">
+      <c r="E8" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>2.8571428571428572</v>
       </c>
@@ -3363,15 +3409,15 @@
         <v>12</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="38">
+        <v>41</v>
+      </c>
+      <c r="C9" s="32">
         <v>7</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="32">
         <v>4</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1.75</v>
       </c>
@@ -3414,18 +3460,18 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="39">
+        <v>34</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="33">
         <v>20</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="33">
         <v>8.33</v>
       </c>
-      <c r="E10" s="116">
+      <c r="E10" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>2.4009603841536613</v>
       </c>
@@ -3471,15 +3517,15 @@
         <v>13</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="38">
+        <v>42</v>
+      </c>
+      <c r="C11" s="32">
         <v>14</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="32">
         <v>25</v>
       </c>
-      <c r="E11" s="116">
+      <c r="E11" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>0.56000000000000005</v>
       </c>
@@ -3521,19 +3567,19 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="39">
+      <c r="A12" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="33">
         <v>44.95</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="33">
         <v>8.33</v>
       </c>
-      <c r="E12" s="116">
+      <c r="E12" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>5.3961584633853548</v>
       </c>
@@ -3575,19 +3621,19 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="A13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="33">
         <v>19</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="33">
         <v>15</v>
       </c>
-      <c r="E13" s="116">
+      <c r="E13" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1.2666666666666666</v>
       </c>
@@ -3629,19 +3675,19 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="115" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="116">
+      <c r="A14" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="104">
         <v>30</v>
       </c>
-      <c r="D14" s="116">
+      <c r="D14" s="104">
         <v>17</v>
       </c>
-      <c r="E14" s="116">
+      <c r="E14" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1.7647058823529411</v>
       </c>
@@ -3683,19 +3729,19 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="116">
+      <c r="A15" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="104">
         <v>65</v>
       </c>
-      <c r="D15" s="116">
+      <c r="D15" s="104">
         <v>35</v>
       </c>
-      <c r="E15" s="116">
+      <c r="E15" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1.8571428571428572</v>
       </c>
@@ -3737,19 +3783,19 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="39">
+      <c r="A16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="33">
         <v>23</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="33">
         <v>50</v>
       </c>
-      <c r="E16" s="116">
+      <c r="E16" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>0.46</v>
       </c>
@@ -3791,19 +3837,19 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="116">
+      <c r="A17" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="104">
         <v>24.25</v>
       </c>
-      <c r="D17" s="116">
+      <c r="D17" s="104">
         <v>8.33</v>
       </c>
-      <c r="E17" s="116">
+      <c r="E17" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>2.9111644657863147</v>
       </c>
@@ -3845,19 +3891,19 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="39">
+      <c r="A18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="33">
         <v>27</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="33">
         <v>8.33</v>
       </c>
-      <c r="E18" s="116">
+      <c r="E18" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>3.2412965186074429</v>
       </c>
@@ -3899,19 +3945,19 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="116">
+      <c r="A19" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="104">
         <v>29.25</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="104">
         <v>8.33</v>
       </c>
-      <c r="E19" s="116">
+      <c r="E19" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>3.51140456182473</v>
       </c>
@@ -3951,19 +3997,19 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="39">
+      <c r="A20" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="33">
         <v>33</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="33">
         <v>25</v>
       </c>
-      <c r="E20" s="116">
+      <c r="E20" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1.32</v>
       </c>
@@ -4005,19 +4051,19 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="39">
+      <c r="A21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="33">
         <v>23</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="33">
         <v>25</v>
       </c>
-      <c r="E21" s="116">
+      <c r="E21" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>0.92</v>
       </c>
@@ -4059,19 +4105,19 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="39">
+      <c r="A22" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="33">
         <v>47</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="33">
         <v>33.299999999999997</v>
       </c>
-      <c r="E22" s="116">
+      <c r="E22" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1.4114114114114116</v>
       </c>
@@ -4113,19 +4159,19 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="39">
+      <c r="A23" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="33">
         <v>22.77</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="33">
         <v>3.1</v>
       </c>
-      <c r="E23" s="116">
+      <c r="E23" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>7.3451612903225802</v>
       </c>
@@ -4167,19 +4213,19 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="116">
+      <c r="A24" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="104">
         <v>40</v>
       </c>
-      <c r="D24" s="116">
+      <c r="D24" s="104">
         <v>8.33</v>
       </c>
-      <c r="E24" s="116">
+      <c r="E24" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>4.8019207683073226</v>
       </c>
@@ -4221,19 +4267,19 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="39">
+      <c r="A25" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="33">
         <v>48</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="33">
         <v>40</v>
       </c>
-      <c r="E25" s="116">
+      <c r="E25" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1.2</v>
       </c>
@@ -4275,19 +4321,19 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="116">
+      <c r="A26" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="104">
         <v>70</v>
       </c>
-      <c r="D26" s="116">
+      <c r="D26" s="104">
         <v>45</v>
       </c>
-      <c r="E26" s="116">
+      <c r="E26" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1.5555555555555556</v>
       </c>
@@ -4327,19 +4373,19 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="39">
+      <c r="A27" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="33">
         <v>20</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="33">
         <v>20</v>
       </c>
-      <c r="E27" s="116">
+      <c r="E27" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1</v>
       </c>
@@ -4382,18 +4428,18 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="39">
+        <v>54</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="33">
         <v>58</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="33">
         <v>45</v>
       </c>
-      <c r="E28" s="116">
+      <c r="E28" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1.288888888888889</v>
       </c>
@@ -4435,19 +4481,19 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="39">
+      <c r="A29" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="33">
         <v>58</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="33">
         <v>45</v>
       </c>
-      <c r="E29" s="116">
+      <c r="E29" s="104">
         <f>fertilizers[[#This Row],[Package Cost]]/fertilizers[[#This Row],[Package Weight]]</f>
         <v>1.288888888888889</v>
       </c>
@@ -5692,8 +5738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C58DC8-98C3-4B6C-97FD-87A66F2FF691}">
   <dimension ref="B3:R26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5703,28 +5749,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="180"/>
+      <c r="D3" s="181"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
+      <c r="G3" s="179" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="181"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="28"/>
+      <c r="M3" s="176" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="178"/>
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -5780,7 +5826,7 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="21" cm="1">
         <f t="array" ref="C6:D7">Calculator!$C$9:$D$10</f>
@@ -5795,7 +5841,7 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="21" cm="1">
         <f t="array" ref="H6:J8">Calculator!$C$9:$E$11</f>
@@ -5813,7 +5859,7 @@
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N6" s="21" cm="1">
         <f t="array" ref="N6:Q9">Calculator!C9:F12</f>
@@ -5963,7 +6009,7 @@
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="16" cm="1">
         <f t="array" ref="C11:D12">MINVERSE(_xlfn.ANCHORARRAY(C6))</f>
@@ -5998,7 +6044,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="16" cm="1">
         <f t="array" ref="H12:J14">MINVERSE((_xlfn.ANCHORARRAY(H6)))</f>
@@ -6013,7 +6059,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" s="16" cm="1">
         <f t="array" ref="N12:Q15">MINVERSE((_xlfn.ANCHORARRAY(N6)))</f>
@@ -6098,9 +6144,9 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="32" cm="1">
+        <v>16</v>
+      </c>
+      <c r="C15" s="26" cm="1">
         <f t="array" ref="C15:C16">MMULT(_xlfn.ANCHORARRAY(C11),Calculator!$G$2:$G$3)</f>
         <v>3.1967401285583104</v>
       </c>
@@ -6133,7 +6179,7 @@
     </row>
     <row r="16" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="14"/>
-      <c r="C16" s="33">
+      <c r="C16" s="27">
         <v>3.2841786852482033</v>
       </c>
       <c r="D16" s="15"/>
@@ -6154,50 +6200,50 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="40"/>
-      <c r="G17" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="42" cm="1">
+    <row r="17" spans="2:18" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="C17" s="34"/>
+      <c r="G17" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="36" cm="1">
         <f t="array" ref="H17:H19">MMULT(_xlfn.ANCHORARRAY(H12),Calculator!$G$2:$G$4)</f>
         <v>3.3447583659000153</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="1" t="str" cm="1">
         <f t="array" ref="K17:K19">TRANSPOSE(_xlfn.ANCHORARRAY(H5))</f>
         <v>Yard Mastery Double Dark</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="38"/>
     </row>
     <row r="18" spans="2:18" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="C18" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="45">
+      <c r="C18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="39">
         <v>3.1100395824932572</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
       <c r="K18" s="1" t="str">
         <v>ProPEAT 17-0-4 Carbon 90 Plus</v>
       </c>
-      <c r="M18" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="42" cm="1">
+      <c r="M18" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="36" cm="1">
         <f t="array" ref="N18:N21">MMULT(_xlfn.ANCHORARRAY(N12),Calculator!$G$2:$G$5)</f>
         <v>3.3447583659000153</v>
       </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="44"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="38"/>
       <c r="R18" s="1" t="str" cm="1">
         <f t="array" ref="R18:R21">TRANSPOSE(_xlfn.ANCHORARRAY(N5))</f>
         <v>Yard Mastery Double Dark</v>
@@ -6208,26 +6254,26 @@
         <f t="array" ref="B19:B20">TRANSPOSE(C5:D5)</f>
         <v>Yard Mastery Double Dark</v>
       </c>
-      <c r="C19" s="40" cm="1">
+      <c r="C19" s="34" cm="1">
         <f t="array" ref="C19:C20">MMULT(_xlfn.ANCHORARRAY(C6),_xlfn.ANCHORARRAY(C15))</f>
         <v>1.0697887970615243</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47">
+      <c r="G19" s="40"/>
+      <c r="H19" s="41">
         <v>0.59207294936681831</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="1" t="str">
         <v>Ironite</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="45">
+      <c r="M19" s="35"/>
+      <c r="N19" s="39">
         <v>3.1100395824932572</v>
       </c>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="44"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
       <c r="R19" s="1" t="str">
         <v>ProPEAT 17-0-4 Carbon 90 Plus</v>
       </c>
@@ -6236,17 +6282,17 @@
       <c r="B20" s="1" t="str">
         <v>ProPEAT 17-0-4 Carbon 90 Plus</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="34">
         <v>0.55831037649219462</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="45">
+      <c r="H20" s="34"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="39">
         <v>0.59207294936681831</v>
       </c>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="44"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="38"/>
       <c r="R20" s="1" t="str">
         <v>Ironite</v>
       </c>
@@ -6256,18 +6302,18 @@
         <f t="array" ref="G21:G23">TRANSPOSE(H5:J5)</f>
         <v>Yard Mastery Double Dark</v>
       </c>
-      <c r="H21" s="40" cm="1">
+      <c r="H21" s="34" cm="1">
         <f t="array" ref="H21:H23">MMULT((_xlfn.ANCHORARRAY(H6)),_xlfn.ANCHORARRAY(H17))</f>
         <v>1.0697887970615245</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47">
+      <c r="I21" s="34"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41">
         <v>1.1846204587571749E-2</v>
       </c>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="49"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
       <c r="R21" s="1" t="str">
         <v>Borax</v>
       </c>
@@ -6276,25 +6322,25 @@
       <c r="G22" s="1" t="str">
         <v>ProPEAT 17-0-4 Carbon 90 Plus</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="34">
         <v>0.55831037649219462</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="N22" s="40"/>
+      <c r="I22" s="34"/>
+      <c r="N22" s="34"/>
     </row>
     <row r="23" spans="2:18" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G23" s="1" t="str">
         <v>Ironite</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="34">
         <v>0.3191000918273646</v>
       </c>
-      <c r="I23" s="40"/>
+      <c r="I23" s="34"/>
       <c r="M23" s="1" t="str" cm="1">
         <f t="array" ref="M23:M26">TRANSPOSE(N5:Q5)</f>
         <v>Yard Mastery Double Dark</v>
       </c>
-      <c r="N23" s="40" cm="1">
+      <c r="N23" s="34" cm="1">
         <f t="array" ref="N23:N26">MMULT(TRANSPOSE(_xlfn.ANCHORARRAY(N6)),_xlfn.ANCHORARRAY(N18))</f>
         <v>0.57068808474692911</v>
       </c>
@@ -6303,7 +6349,7 @@
       <c r="M24" s="1" t="str">
         <v>ProPEAT 17-0-4 Carbon 90 Plus</v>
       </c>
-      <c r="N24" s="40">
+      <c r="N24" s="34">
         <v>1.0973156512268565</v>
       </c>
     </row>
@@ -6311,7 +6357,7 @@
       <c r="M25" s="1" t="str">
         <v>Ironite</v>
       </c>
-      <c r="N25" s="40">
+      <c r="N25" s="34">
         <v>0.30736415265702671</v>
       </c>
     </row>
@@ -6379,7 +6425,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5">
         <v>43560</v>
@@ -6387,7 +6433,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -6395,16 +6441,16 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="36">
+        <v>31</v>
+      </c>
+      <c r="B3" s="30">
         <f>B2/B1</f>
         <v>4.5913682277318639E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7">
         <f>B3*1000</f>
